--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-AlgebraLineal.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-AlgebraLineal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\TESIS\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboni\Documents\GitHub\R4XCL\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5256A7-5D90-4864-99CD-E8C9208F52AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FFAFC-FC6E-4318-8656-C45198EB016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{CC386300-E538-41D0-89B6-B8C8141CBFCB}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{CC386300-E538-41D0-89B6-B8C8141CBFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="ALGEBRA LINEAL" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TIPO OUTPUT</t>
   </si>
@@ -3330,18 +3330,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8E94D3-AF7B-4FD5-8632-8CB26A64A89E}">
-  <dimension ref="A2:L17"/>
+  <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A13" sqref="A13:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="8" max="12" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3378,12 +3378,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="e" cm="1">
-        <f t="array" ref="H3">_xll.R.MM_Algebra.C(A2:E7,B9)</f>
-        <v>#VALUE!</v>
+      <c r="H3" s="1" t="str" cm="1">
+        <f t="array" ref="H3:H10">_xll.R.MM_Algebra.C(A2:E7,B9)</f>
+        <v>[1] Factorización de Cholesky</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <f>E3+1</f>
         <v>6</v>
@@ -3404,8 +3404,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="H4" s="1" t="str">
+        <v>[2] Valores propios</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <f>E4+1</f>
         <v>11</v>
@@ -3426,8 +3429,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="H5" s="1" t="str">
+        <v>[3] Vectores propios</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <f>E5+1</f>
         <v>16</v>
@@ -3448,8 +3454,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="H6" s="1" t="str">
+        <v>[4] Decomposición QR</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <f>E6+1</f>
         <v>21</v>
@@ -3470,49 +3479,29 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="H7" s="1" t="str">
+        <v>[5] Matriz Inversa</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H8" s="1" t="str">
+        <v>[6] Singular Value Decomposition</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
+      <c r="H9" s="1" t="str">
+        <v>[7] Diagonal de la matriz</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="e" cm="1">
-        <f t="array" ref="H13">_xll.R.MM_Algebra.C(A13:B15,B17)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H10" s="1" t="str">
+        <v>[8] Matriz Transpuesta</v>
       </c>
     </row>
   </sheetData>
